--- a/反復１/反復１テスト仕様書/ユニットテスト仕様書(Cell).xlsx
+++ b/反復１/反復１テスト仕様書/ユニットテスト仕様書(Cell).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studyuser\Documents\git\13_HJHK\反復１\反復１テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199BC818-9E4D-4EE7-84B8-81D12B9EC461}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112E79C-1145-4EA9-83BE-B924FD67E580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>タイトル：Cellクラステスト仕様書</t>
   </si>
@@ -198,12 +196,45 @@
   <si>
     <t>〇</t>
   </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.(1,1)に設定したCellインスタンスを作成
+2.setMark(CROSS)
+3.changeMark()を呼び出す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CIRCLEを"×"に変換する場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北田
+林</t>
+    <rPh sb="0" eb="2">
+      <t>キタダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -257,6 +288,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -281,21 +318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -324,16 +346,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -348,39 +385,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -392,131 +397,21 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -525,137 +420,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,7 +861,7 @@
   <dimension ref="B1:AT13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:T9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1017,690 +876,727 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
     </row>
     <row r="4" spans="2:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="17" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="17" t="s">
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="17" t="s">
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="17" t="s">
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="17" t="s">
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="17" t="s">
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="37"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="28"/>
     </row>
     <row r="7" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="39" t="b">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="39" t="b">
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="13" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="23" t="s">
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="16">
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="20">
         <v>43990</v>
       </c>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="36"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="12"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="21" t="b">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="21" t="b">
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="13" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="23" t="s">
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="16">
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="20">
         <v>43990</v>
       </c>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="33"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="21" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="21" t="s">
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="13" t="s">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="23" t="s">
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="16">
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="20">
         <v>43990</v>
       </c>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="33"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="21" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="21" t="s">
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="13" t="s">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="23" t="s">
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="16">
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="20">
         <v>43990</v>
       </c>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="33"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="21" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="21" t="s">
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="13" t="s">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="23" t="s">
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="16">
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="20">
         <v>43990</v>
       </c>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="22">
+        <v>43994</v>
+      </c>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
     </row>
     <row r="13" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AQ6:AT6"/>
+  <mergeCells count="68">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="F9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="AI9:AL9"/>
+    <mergeCell ref="AI10:AL10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AQ13:AT13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="AI13:AL13"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AQ11:AT11"/>
+    <mergeCell ref="AI11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AI12:AL12"/>
+    <mergeCell ref="AM12:AP12"/>
     <mergeCell ref="C2:AT3"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F10:T10"/>
@@ -1717,41 +1613,22 @@
     <mergeCell ref="Z9:AD9"/>
     <mergeCell ref="AM9:AP9"/>
     <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AQ11:AT11"/>
-    <mergeCell ref="AI11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AQ12:AT12"/>
-    <mergeCell ref="AI12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="AI13:AL13"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="F9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="AI9:AL9"/>
-    <mergeCell ref="AI10:AL10"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:Y8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1761,12 +1638,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,15 +1828,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1986,10 +1864,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/反復１/反復１テスト仕様書/ユニットテスト仕様書(Cell).xlsx
+++ b/反復１/反復１テスト仕様書/ユニットテスト仕様書(Cell).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studyuser\Documents\git\13_HJHK\反復１\反復１テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\13_HJHK\反復１\反復１テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112E79C-1145-4EA9-83BE-B924FD67E580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B8305-E5A6-469D-8B47-FF67400B099C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>タイトル：Cellクラステスト仕様書</t>
   </si>
@@ -196,45 +196,12 @@
   <si>
     <t>〇</t>
   </si>
-  <si>
-    <t>4-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.(1,1)に設定したCellインスタンスを作成
-2.setMark(CROSS)
-3.changeMark()を呼び出す</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CIRCLEを"×"に変換する場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>北田
-林</t>
-    <rPh sb="0" eb="2">
-      <t>キタダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -288,12 +255,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -420,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +400,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +440,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,64 +463,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,10 +813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AT13"/>
+  <dimension ref="B1:AT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -876,102 +831,102 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
     </row>
     <row r="4" spans="2:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1064,71 +1019,71 @@
       <c r="AT5" s="5"/>
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="27" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="27" t="s">
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="27" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="27" t="s">
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="27" t="s">
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="27" t="s">
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="28"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="27"/>
     </row>
     <row r="7" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -1138,430 +1093,410 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7" t="b">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="7" t="b">
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="9" t="s">
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
       <c r="AI7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="20">
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="13">
         <v>43990</v>
       </c>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
     </row>
     <row r="8" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7" t="b">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7" t="b">
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="9" t="s">
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
       <c r="AI8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="20">
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="13">
         <v>43990</v>
       </c>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
     </row>
     <row r="9" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="7" t="s">
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="9" t="s">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
       <c r="AI9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="20">
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="13">
         <v>43990</v>
       </c>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
     </row>
     <row r="10" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="7" t="s">
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="9" t="s">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
       <c r="AI10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="20">
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="13">
         <v>43990</v>
       </c>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
     </row>
     <row r="11" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="7" t="s">
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="9" t="s">
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
       <c r="AI11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="20">
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="13">
         <v>43990</v>
       </c>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
     </row>
     <row r="12" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="22">
-        <v>43994</v>
-      </c>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-    </row>
-    <row r="13" spans="2:46" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="59">
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="AQ9:AT9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AM9:AP9"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="C2:AT3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="AI12:AL12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="AM12:AP12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AQ11:AT11"/>
+    <mergeCell ref="AI11:AL11"/>
+    <mergeCell ref="AM11:AP11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="AE11:AH11"/>
     <mergeCell ref="C4:D4"/>
@@ -1577,58 +1512,6 @@
     <mergeCell ref="U9:Y9"/>
     <mergeCell ref="AI9:AL9"/>
     <mergeCell ref="AI10:AL10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="AI13:AL13"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="AQ11:AT11"/>
-    <mergeCell ref="AI11:AL11"/>
-    <mergeCell ref="AM11:AP11"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AQ12:AT12"/>
-    <mergeCell ref="AI12:AL12"/>
-    <mergeCell ref="AM12:AP12"/>
-    <mergeCell ref="C2:AT3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AI7:AL7"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="AQ9:AT9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AM9:AP9"/>
-    <mergeCell ref="AM10:AP10"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:Y8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1638,9 +1521,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,19 +1714,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1864,9 +1746,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>